--- a/01_raw_data/4.1_SOCS/raw/input/D2.8.SVY.BIZZ.xlsx
+++ b/01_raw_data/4.1_SOCS/raw/input/D2.8.SVY.BIZZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/bstacy_worldbank_org/Documents/DECIS/SPI/Data/SPI 2023/01_raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/zprinsloo_worldbank_org/Documents/spi/technical-work/SPI/01_raw_data/4.1_SOCS/raw/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="579" documentId="13_ncr:1_{785F06A1-600C-43BF-BDD6-ED8E91CA7490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1C3B85-9A64-4D09-AF57-CBA14BC8DDE1}"/>
+  <xr:revisionPtr revIDLastSave="586" documentId="13_ncr:1_{785F06A1-600C-43BF-BDD6-ED8E91CA7490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A82BEA04-2BFA-40CC-9172-B1CB001A8480}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{B1D4A2B0-B996-4285-8899-E61063B05042}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{B1D4A2B0-B996-4285-8899-E61063B05042}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 DCS" sheetId="13" r:id="rId1"/>
@@ -11167,7 +11167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11545,10 +11545,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11586,7 +11590,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11692,7 +11696,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11834,7 +11838,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11848,12 +11852,12 @@
       <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -11933,7 +11937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -11944,7 +11948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -12030,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -12116,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -12202,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -12288,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -12374,7 +12378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -12460,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -12546,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -12632,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -12718,7 +12722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -12804,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -12890,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -12976,7 +12980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -13062,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -13148,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -13234,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -13320,7 +13324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -13406,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -13492,7 +13496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -13578,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -13664,7 +13668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -13750,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -13836,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -13922,7 +13926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -14008,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -14180,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -14266,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -14352,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -14438,7 +14442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -14524,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -14610,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -14696,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -14782,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -14868,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -14954,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -15040,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -15126,7 +15130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -15212,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -15298,7 +15302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -15384,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -15470,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -15556,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -15642,7 +15646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -15728,7 +15732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -15814,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -15900,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -15986,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -16072,7 +16076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -16158,7 +16162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -16244,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -16330,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -16416,7 +16420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -16502,7 +16506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -16588,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -16674,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -16760,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -16846,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -16932,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -17018,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -17104,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -17190,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -17276,7 +17280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -17362,7 +17366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -17448,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -17534,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -17620,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -17706,7 +17710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -17792,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>98</v>
       </c>
@@ -17878,7 +17882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>99</v>
       </c>
@@ -17964,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -18050,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>101</v>
       </c>
@@ -18136,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>102</v>
       </c>
@@ -18222,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -18308,7 +18312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -18394,7 +18398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>105</v>
       </c>
@@ -18480,7 +18484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -18566,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -18652,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>108</v>
       </c>
@@ -18738,7 +18742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -18824,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -18910,7 +18914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -18996,7 +19000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -19082,7 +19086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>113</v>
       </c>
@@ -19168,7 +19172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>114</v>
       </c>
@@ -19254,7 +19258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>115</v>
       </c>
@@ -19340,7 +19344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>116</v>
       </c>
@@ -19426,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -19512,7 +19516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -19598,7 +19602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -19684,7 +19688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -19770,7 +19774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>121</v>
       </c>
@@ -19856,7 +19860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -19942,7 +19946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -20028,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>124</v>
       </c>
@@ -20114,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>125</v>
       </c>
@@ -20200,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -20286,7 +20290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>127</v>
       </c>
@@ -20372,7 +20376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>128</v>
       </c>
@@ -20455,7 +20459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>129</v>
       </c>
@@ -20541,7 +20545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>130</v>
       </c>
@@ -20627,7 +20631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>131</v>
       </c>
@@ -20713,7 +20717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>132</v>
       </c>
@@ -20799,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>133</v>
       </c>
@@ -20885,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>134</v>
       </c>
@@ -20971,7 +20975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>135</v>
       </c>
@@ -21057,7 +21061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>136</v>
       </c>
@@ -21143,7 +21147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>137</v>
       </c>
@@ -21229,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>138</v>
       </c>
@@ -21315,7 +21319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>139</v>
       </c>
@@ -21401,7 +21405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>140</v>
       </c>
@@ -21487,7 +21491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>141</v>
       </c>
@@ -21573,7 +21577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>142</v>
       </c>
@@ -21659,7 +21663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>143</v>
       </c>
@@ -21745,7 +21749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>144</v>
       </c>
@@ -21831,7 +21835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>145</v>
       </c>
@@ -21917,7 +21921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>146</v>
       </c>
@@ -22003,7 +22007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>147</v>
       </c>
@@ -22089,7 +22093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>148</v>
       </c>
@@ -22175,7 +22179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -22261,7 +22265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>150</v>
       </c>
@@ -22347,7 +22351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>151</v>
       </c>
@@ -22433,7 +22437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -22519,7 +22523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>153</v>
       </c>
@@ -22605,7 +22609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>154</v>
       </c>
@@ -22691,7 +22695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>155</v>
       </c>
@@ -22777,7 +22781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>156</v>
       </c>
@@ -22863,7 +22867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>157</v>
       </c>
@@ -22949,7 +22953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>158</v>
       </c>
@@ -23035,7 +23039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>159</v>
       </c>
@@ -23121,7 +23125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>160</v>
       </c>
@@ -23207,7 +23211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>161</v>
       </c>
@@ -23293,7 +23297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>162</v>
       </c>
@@ -23379,7 +23383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>163</v>
       </c>
@@ -23465,7 +23469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>164</v>
       </c>
@@ -23551,7 +23555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>165</v>
       </c>
@@ -23637,7 +23641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>166</v>
       </c>
@@ -23723,7 +23727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>167</v>
       </c>
@@ -23809,7 +23813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -23895,7 +23899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>169</v>
       </c>
@@ -23981,7 +23985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>170</v>
       </c>
@@ -24067,7 +24071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>171</v>
       </c>
@@ -24153,7 +24157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>172</v>
       </c>
@@ -24239,7 +24243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>173</v>
       </c>
@@ -24325,7 +24329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>174</v>
       </c>
@@ -24411,7 +24415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>175</v>
       </c>
@@ -24497,7 +24501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>176</v>
       </c>
@@ -24583,7 +24587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>177</v>
       </c>
@@ -24669,7 +24673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>178</v>
       </c>
@@ -24755,7 +24759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>179</v>
       </c>
@@ -24841,7 +24845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>180</v>
       </c>
@@ -24927,7 +24931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>181</v>
       </c>
@@ -25013,7 +25017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>182</v>
       </c>
@@ -25099,7 +25103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>183</v>
       </c>
@@ -25185,7 +25189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>184</v>
       </c>
@@ -25271,7 +25275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>185</v>
       </c>
@@ -25357,7 +25361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>186</v>
       </c>
@@ -25443,7 +25447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>187</v>
       </c>
@@ -25529,7 +25533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>188</v>
       </c>
@@ -25615,7 +25619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>189</v>
       </c>
@@ -25701,7 +25705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>190</v>
       </c>
@@ -25787,7 +25791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>191</v>
       </c>
@@ -25873,7 +25877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>192</v>
       </c>
@@ -25959,7 +25963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>193</v>
       </c>
@@ -26045,7 +26049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>194</v>
       </c>
@@ -26131,7 +26135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>195</v>
       </c>
@@ -26217,7 +26221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>196</v>
       </c>
@@ -26303,7 +26307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>197</v>
       </c>
@@ -26389,7 +26393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>198</v>
       </c>
@@ -26475,7 +26479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>199</v>
       </c>
@@ -26561,7 +26565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>200</v>
       </c>
@@ -26647,7 +26651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>201</v>
       </c>
@@ -26733,7 +26737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>202</v>
       </c>
@@ -26819,7 +26823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>203</v>
       </c>
@@ -26905,7 +26909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>204</v>
       </c>
@@ -26991,7 +26995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>205</v>
       </c>
@@ -27077,7 +27081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>206</v>
       </c>
@@ -27163,7 +27167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>207</v>
       </c>
@@ -27249,7 +27253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>208</v>
       </c>
@@ -27335,7 +27339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>209</v>
       </c>
@@ -27421,7 +27425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>210</v>
       </c>
@@ -27507,7 +27511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>211</v>
       </c>
@@ -27593,7 +27597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>212</v>
       </c>
@@ -27679,7 +27683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>213</v>
       </c>
@@ -27765,7 +27769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>214</v>
       </c>
@@ -27851,7 +27855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>215</v>
       </c>
@@ -27937,7 +27941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>216</v>
       </c>
@@ -28023,7 +28027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>217</v>
       </c>
@@ -28109,7 +28113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>218</v>
       </c>
@@ -28195,7 +28199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>219</v>
       </c>
@@ -28284,6 +28288,9 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Official Use Only</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -28292,22 +28299,22 @@
   <dimension ref="A1:CG193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AA187" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AF194" sqref="AF194"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W96" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="AD106" sqref="AD106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="156.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.54296875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="156.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D1" s="10" t="s">
         <v>220</v>
       </c>
@@ -28319,7 +28326,7 @@
       </c>
       <c r="G1" s="48"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -28407,7 +28414,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="17" t="s">
         <v>26</v>
@@ -28506,7 +28513,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -28600,7 +28607,7 @@
         <v xml:space="preserve">2009, 2015, </v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -28694,7 +28701,7 @@
         <v xml:space="preserve">2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, </v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -28788,7 +28795,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -28882,7 +28889,7 @@
         <v xml:space="preserve">2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, </v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -28976,7 +28983,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -29070,7 +29077,7 @@
         <v xml:space="preserve">2010, </v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -29164,7 +29171,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -29258,7 +29265,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -29352,7 +29359,7 @@
         <v xml:space="preserve">2010, </v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -29446,7 +29453,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -29540,7 +29547,7 @@
         <v xml:space="preserve">2016, </v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -29634,7 +29641,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -29728,7 +29735,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:85">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -29822,7 +29829,7 @@
         <v xml:space="preserve">2004, 2018, </v>
       </c>
     </row>
-    <row r="18" spans="1:85">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -29916,7 +29923,7 @@
         <v xml:space="preserve">2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, </v>
       </c>
     </row>
-    <row r="19" spans="1:85">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -30010,7 +30017,7 @@
         <v xml:space="preserve">2006, 2010, </v>
       </c>
     </row>
-    <row r="20" spans="1:85">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -30104,7 +30111,7 @@
         <v xml:space="preserve">1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, </v>
       </c>
     </row>
-    <row r="21" spans="1:85" s="22" customFormat="1">
+    <row r="21" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -30224,7 +30231,7 @@
       <c r="BF21"/>
       <c r="BG21"/>
     </row>
-    <row r="22" spans="1:85">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -30318,7 +30325,7 @@
         <v xml:space="preserve">2009, </v>
       </c>
     </row>
-    <row r="23" spans="1:85">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -30412,7 +30419,7 @@
         <v xml:space="preserve">2005, </v>
       </c>
     </row>
-    <row r="24" spans="1:85">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -30506,7 +30513,7 @@
         <v xml:space="preserve">2009, 2016, 2017, 2018, </v>
       </c>
     </row>
-    <row r="25" spans="1:85">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -30600,7 +30607,7 @@
         <v xml:space="preserve">1999, 2005, </v>
       </c>
     </row>
-    <row r="26" spans="1:85">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -30694,7 +30701,7 @@
         <v xml:space="preserve">2006, 2009, 2017, 2018, 2019, </v>
       </c>
     </row>
-    <row r="27" spans="1:85">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -30840,7 +30847,7 @@
       <c r="CF27" s="24"/>
       <c r="CG27" s="24"/>
     </row>
-    <row r="28" spans="1:85">
+    <row r="28" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -30934,7 +30941,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:85" s="22" customFormat="1">
+    <row r="29" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>26</v>
       </c>
@@ -31080,7 +31087,7 @@
       <c r="CF29" s="24"/>
       <c r="CG29" s="24"/>
     </row>
-    <row r="30" spans="1:85">
+    <row r="30" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -31174,7 +31181,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:85">
+    <row r="31" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -31268,7 +31275,7 @@
         <v xml:space="preserve">2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, </v>
       </c>
     </row>
-    <row r="32" spans="1:85">
+    <row r="32" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -31362,7 +31369,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:59">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -31456,7 +31463,7 @@
         <v xml:space="preserve">2006, 2010, 2014, </v>
       </c>
     </row>
-    <row r="34" spans="1:59">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -31550,7 +31557,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:59">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -31644,7 +31651,7 @@
         <v xml:space="preserve">2011, 2015, 2016, 2017, </v>
       </c>
     </row>
-    <row r="36" spans="1:59">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -31738,7 +31745,7 @@
         <v xml:space="preserve">2009, 2017, </v>
       </c>
     </row>
-    <row r="37" spans="1:59" s="22" customFormat="1">
+    <row r="37" spans="1:59" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -31858,7 +31865,7 @@
       <c r="BF37"/>
       <c r="BG37"/>
     </row>
-    <row r="38" spans="1:59">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -31952,7 +31959,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:59">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -32046,7 +32053,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:59">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -32140,7 +32147,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:59">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -32234,7 +32241,7 @@
         <v xml:space="preserve">2006, 2007, 2008, 2009, 2010, 2012, 2013, 2014, 2015, 2016, 2017, 2018, </v>
       </c>
     </row>
-    <row r="42" spans="1:59">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -32328,7 +32335,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:59">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -32422,7 +32429,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:59">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -32516,7 +32523,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:59">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -32610,7 +32617,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:59">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -32704,7 +32711,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:59">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -32798,7 +32805,7 @@
         <v xml:space="preserve">1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, </v>
       </c>
     </row>
-    <row r="48" spans="1:59">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -32892,7 +32899,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -32986,7 +32993,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -33080,7 +33087,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -33174,7 +33181,7 @@
         <v xml:space="preserve">2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, </v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -33268,7 +33275,7 @@
         <v xml:space="preserve">2013, 2015, </v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -33362,7 +33369,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -33456,7 +33463,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -33550,7 +33557,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -33591,7 +33598,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="18">
         <v>0</v>
@@ -33641,10 +33648,10 @@
       <c r="AF56" s="50"/>
       <c r="AG56" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve">2006, </v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -33738,7 +33745,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -33832,7 +33839,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -33926,7 +33933,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -34012,15 +34019,21 @@
         <v>0</v>
       </c>
       <c r="AC60" s="50"/>
-      <c r="AD60" s="50"/>
-      <c r="AE60" s="50"/>
-      <c r="AF60" s="50"/>
+      <c r="AD60" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="50">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="50">
+        <v>1</v>
+      </c>
       <c r="AG60" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, </v>
+        <v xml:space="preserve">1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2022, 2023, 2024, </v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -34114,7 +34127,7 @@
         <v xml:space="preserve">1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, </v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -34208,7 +34221,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -34302,7 +34315,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -34396,7 +34409,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -34490,7 +34503,7 @@
         <v xml:space="preserve">2013, 2015, </v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -34584,7 +34597,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -34678,7 +34691,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -34772,7 +34785,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -34866,7 +34879,7 @@
         <v xml:space="preserve">2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, </v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -34960,7 +34973,7 @@
         <v xml:space="preserve">2003, </v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -35054,7 +35067,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -35148,7 +35161,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -35242,7 +35255,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -35336,7 +35349,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>72</v>
       </c>
@@ -35430,7 +35443,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:33" s="24" customFormat="1">
+    <row r="76" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>73</v>
       </c>
@@ -35524,7 +35537,7 @@
         <v xml:space="preserve">2002, 2005, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, </v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>74</v>
       </c>
@@ -35618,7 +35631,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>75</v>
       </c>
@@ -35712,7 +35725,7 @@
         <v xml:space="preserve">1998, 2003, 2005, 2007, 2010, 2011, 2012, 2013, </v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>76</v>
       </c>
@@ -35806,7 +35819,7 @@
         <v xml:space="preserve">2017, </v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>77</v>
       </c>
@@ -35900,7 +35913,7 @@
         <v xml:space="preserve">2007, 2013, </v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>78</v>
       </c>
@@ -35994,7 +36007,7 @@
         <v xml:space="preserve">2006, 2007, </v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>79</v>
       </c>
@@ -36088,7 +36101,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>80</v>
       </c>
@@ -36182,7 +36195,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>81</v>
       </c>
@@ -36276,7 +36289,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>82</v>
       </c>
@@ -36370,7 +36383,7 @@
         <v xml:space="preserve">2016, 2017, 2018, 2019, </v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>83</v>
       </c>
@@ -36464,7 +36477,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>84</v>
       </c>
@@ -36558,7 +36571,7 @@
         <v xml:space="preserve">2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, </v>
       </c>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>85</v>
       </c>
@@ -36652,7 +36665,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>86</v>
       </c>
@@ -36746,7 +36759,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>87</v>
       </c>
@@ -36840,7 +36853,7 @@
         <v xml:space="preserve">2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2019, </v>
       </c>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>88</v>
       </c>
@@ -36934,7 +36947,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>89</v>
       </c>
@@ -37028,7 +37041,7 @@
         <v xml:space="preserve">2015, 2017, </v>
       </c>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>90</v>
       </c>
@@ -37122,7 +37135,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:33">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>91</v>
       </c>
@@ -37216,7 +37229,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:33">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>92</v>
       </c>
@@ -37310,7 +37323,7 @@
         <v xml:space="preserve">2008, </v>
       </c>
     </row>
-    <row r="96" spans="1:33">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>93</v>
       </c>
@@ -37404,7 +37417,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:33">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>94</v>
       </c>
@@ -37498,7 +37511,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:33">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>95</v>
       </c>
@@ -37592,7 +37605,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>96</v>
       </c>
@@ -37686,7 +37699,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>97</v>
       </c>
@@ -37780,7 +37793,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>98</v>
       </c>
@@ -37874,7 +37887,7 @@
         <v xml:space="preserve">2016, 2017, 2018, 2019, </v>
       </c>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>99</v>
       </c>
@@ -37966,7 +37979,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>100</v>
       </c>
@@ -38060,7 +38073,7 @@
         <v xml:space="preserve">2015, 2016, </v>
       </c>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>101</v>
       </c>
@@ -38154,7 +38167,7 @@
         <v xml:space="preserve">2001, 2004, 2006, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, </v>
       </c>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>102</v>
       </c>
@@ -38240,15 +38253,17 @@
         <v>0</v>
       </c>
       <c r="AC105" s="50"/>
-      <c r="AD105" s="50"/>
+      <c r="AD105" s="50">
+        <v>1</v>
+      </c>
       <c r="AE105" s="50"/>
       <c r="AF105" s="50"/>
       <c r="AG105" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">2005, 2008, 2014, 2015, 2016, 2017, 2018, </v>
+        <v xml:space="preserve">2005, 2008, 2014, 2015, 2016, 2017, 2018, 2022, </v>
       </c>
     </row>
-    <row r="106" spans="1:33">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>103</v>
       </c>
@@ -38342,7 +38357,7 @@
         <v xml:space="preserve">1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, </v>
       </c>
     </row>
-    <row r="107" spans="1:33">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>104</v>
       </c>
@@ -38436,7 +38451,7 @@
         <v xml:space="preserve">2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, </v>
       </c>
     </row>
-    <row r="108" spans="1:33">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>105</v>
       </c>
@@ -38530,7 +38545,7 @@
         <v xml:space="preserve">2010, 2015, </v>
       </c>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>106</v>
       </c>
@@ -38624,7 +38639,7 @@
         <v xml:space="preserve">2014, 2015, 2016, 2017, 2018, </v>
       </c>
     </row>
-    <row r="110" spans="1:33">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>107</v>
       </c>
@@ -38718,7 +38733,7 @@
         <v xml:space="preserve">2013, </v>
       </c>
     </row>
-    <row r="111" spans="1:33">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>108</v>
       </c>
@@ -38812,7 +38827,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:33">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>109</v>
       </c>
@@ -38906,7 +38921,7 @@
         <v xml:space="preserve">2013, </v>
       </c>
     </row>
-    <row r="113" spans="1:33">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>110</v>
       </c>
@@ -39000,7 +39015,7 @@
         <v xml:space="preserve">2017, 2018, 2019, </v>
       </c>
     </row>
-    <row r="114" spans="1:33">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>111</v>
       </c>
@@ -39094,7 +39109,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:33">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>112</v>
       </c>
@@ -39188,7 +39203,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:33">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>113</v>
       </c>
@@ -39282,7 +39297,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:33">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>114</v>
       </c>
@@ -39376,7 +39391,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:33">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>115</v>
       </c>
@@ -39470,7 +39485,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:33">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>116</v>
       </c>
@@ -39564,7 +39579,7 @@
         <v xml:space="preserve">2010, </v>
       </c>
     </row>
-    <row r="120" spans="1:33">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>117</v>
       </c>
@@ -39658,7 +39673,7 @@
         <v xml:space="preserve">2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, </v>
       </c>
     </row>
-    <row r="121" spans="1:33">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>118</v>
       </c>
@@ -39752,7 +39767,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:33">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>119</v>
       </c>
@@ -39846,7 +39861,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:33">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>120</v>
       </c>
@@ -39940,7 +39955,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:33">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>121</v>
       </c>
@@ -40034,7 +40049,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:33">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>122</v>
       </c>
@@ -40128,7 +40143,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:33">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>123</v>
       </c>
@@ -40222,7 +40237,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:33">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>124</v>
       </c>
@@ -40316,7 +40331,7 @@
         <v xml:space="preserve">2002, </v>
       </c>
     </row>
-    <row r="128" spans="1:33">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>125</v>
       </c>
@@ -40410,7 +40425,7 @@
         <v xml:space="preserve">2010, 2014, </v>
       </c>
     </row>
-    <row r="129" spans="1:33">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>126</v>
       </c>
@@ -40504,7 +40519,7 @@
         <v xml:space="preserve">2016, </v>
       </c>
     </row>
-    <row r="130" spans="1:33">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>127</v>
       </c>
@@ -40598,7 +40613,7 @@
         <v xml:space="preserve">2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, </v>
       </c>
     </row>
-    <row r="131" spans="1:33">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>128</v>
       </c>
@@ -40692,7 +40707,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:33">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>129</v>
       </c>
@@ -40786,7 +40801,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:33">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>130</v>
       </c>
@@ -40880,7 +40895,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:33">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>131</v>
       </c>
@@ -40974,7 +40989,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:33">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>132</v>
       </c>
@@ -41068,7 +41083,7 @@
         <v xml:space="preserve">2011, 2012, 2013, 2014, 2015, 2016, </v>
       </c>
     </row>
-    <row r="136" spans="1:33">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>133</v>
       </c>
@@ -41162,7 +41177,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:33">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>134</v>
       </c>
@@ -41256,7 +41271,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:33">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>135</v>
       </c>
@@ -41350,7 +41365,7 @@
         <v xml:space="preserve">2001, 2006, </v>
       </c>
     </row>
-    <row r="139" spans="1:33">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>136</v>
       </c>
@@ -41444,7 +41459,7 @@
         <v xml:space="preserve">2002, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, </v>
       </c>
     </row>
-    <row r="140" spans="1:33">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>137</v>
       </c>
@@ -41538,7 +41553,7 @@
         <v xml:space="preserve">2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, </v>
       </c>
     </row>
-    <row r="141" spans="1:33">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>138</v>
       </c>
@@ -41638,7 +41653,7 @@
         <v xml:space="preserve">2002, 2019, 2021, 2022, 2023, </v>
       </c>
     </row>
-    <row r="142" spans="1:33">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>139</v>
       </c>
@@ -41732,7 +41747,7 @@
         <v xml:space="preserve">2001, </v>
       </c>
     </row>
-    <row r="143" spans="1:33">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>140</v>
       </c>
@@ -41826,7 +41841,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:33">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>141</v>
       </c>
@@ -41920,7 +41935,7 @@
         <v xml:space="preserve">2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, </v>
       </c>
     </row>
-    <row r="145" spans="1:35">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>142</v>
       </c>
@@ -42014,7 +42029,7 @@
         <v xml:space="preserve">2003, 2004, </v>
       </c>
     </row>
-    <row r="146" spans="1:35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>143</v>
       </c>
@@ -42108,7 +42123,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>144</v>
       </c>
@@ -42202,7 +42217,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>145</v>
       </c>
@@ -42296,7 +42311,7 @@
         <v xml:space="preserve">2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, </v>
       </c>
     </row>
-    <row r="149" spans="1:35">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>146</v>
       </c>
@@ -42395,7 +42410,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="150" spans="1:35">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>147</v>
       </c>
@@ -42494,7 +42509,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="151" spans="1:35">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>148</v>
       </c>
@@ -42596,7 +42611,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="152" spans="1:35">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>149</v>
       </c>
@@ -42698,7 +42713,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="153" spans="1:35">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>150</v>
       </c>
@@ -42797,7 +42812,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="154" spans="1:35">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>151</v>
       </c>
@@ -42899,7 +42914,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="155" spans="1:35">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>152</v>
       </c>
@@ -43001,7 +43016,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="156" spans="1:35">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>153</v>
       </c>
@@ -43100,7 +43115,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="157" spans="1:35">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>154</v>
       </c>
@@ -43201,7 +43216,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="158" spans="1:35">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>155</v>
       </c>
@@ -43303,7 +43318,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="159" spans="1:35">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>156</v>
       </c>
@@ -43399,7 +43414,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:35">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>157</v>
       </c>
@@ -43495,7 +43510,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:44">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>158</v>
       </c>
@@ -43596,7 +43611,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="162" spans="1:44">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>159</v>
       </c>
@@ -43701,7 +43716,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="163" spans="1:44">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>160</v>
       </c>
@@ -43803,7 +43818,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="164" spans="1:44">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>161</v>
       </c>
@@ -43897,7 +43912,7 @@
         <v xml:space="preserve">2010, </v>
       </c>
     </row>
-    <row r="165" spans="1:44">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>162</v>
       </c>
@@ -43998,7 +44013,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="166" spans="1:44">
+    <row r="166" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>163</v>
       </c>
@@ -44112,7 +44127,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="167" spans="1:44">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>164</v>
       </c>
@@ -44214,7 +44229,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="168" spans="1:44">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>165</v>
       </c>
@@ -44321,7 +44336,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="169" spans="1:44">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>166</v>
       </c>
@@ -44429,7 +44444,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="170" spans="1:44">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>167</v>
       </c>
@@ -44539,7 +44554,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="1:44">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
         <v>168</v>
       </c>
@@ -44643,7 +44658,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="172" spans="1:44">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>169</v>
       </c>
@@ -44754,7 +44769,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="173" spans="1:44">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
         <v>170</v>
       </c>
@@ -44859,7 +44874,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="174" spans="1:44">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>171</v>
       </c>
@@ -44972,7 +44987,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="175" spans="1:44">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
         <v>172</v>
       </c>
@@ -45092,7 +45107,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="176" spans="1:44">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
         <v>173</v>
       </c>
@@ -45197,7 +45212,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="177" spans="1:39">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
         <v>174</v>
       </c>
@@ -45302,7 +45317,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="178" spans="1:39">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>175</v>
       </c>
@@ -45409,7 +45424,7 @@
       </c>
       <c r="AJ178" s="33"/>
     </row>
-    <row r="179" spans="1:39">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
         <v>176</v>
       </c>
@@ -45517,7 +45532,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="180" spans="1:39">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
         <v>177</v>
       </c>
@@ -45634,7 +45649,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:39">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
         <v>178</v>
       </c>
@@ -45743,7 +45758,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="182" spans="1:39">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
         <v>179</v>
       </c>
@@ -45842,7 +45857,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="183" spans="1:39">
+    <row r="183" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
         <v>180</v>
       </c>
@@ -45949,7 +45964,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="184" spans="1:39">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
         <v>181</v>
       </c>
@@ -46060,7 +46075,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="185" spans="1:39">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
         <v>182</v>
       </c>
@@ -46170,7 +46185,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="186" spans="1:39">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
         <v>183</v>
       </c>
@@ -46277,7 +46292,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="187" spans="1:39">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
         <v>184</v>
       </c>
@@ -46387,7 +46402,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="188" spans="1:39">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
         <v>185</v>
       </c>
@@ -46494,7 +46509,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="189" spans="1:39">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
         <v>186</v>
       </c>
@@ -46600,7 +46615,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="190" spans="1:39">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
         <v>187</v>
       </c>
@@ -46715,7 +46730,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="191" spans="1:39">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
         <v>188</v>
       </c>
@@ -46831,7 +46846,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="192" spans="1:39">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
         <v>189</v>
       </c>
@@ -46944,7 +46959,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="193" spans="1:37">
+    <row r="193" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>190</v>
       </c>
@@ -47156,19 +47171,20 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId94"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Official Use Only</oddFooter>
+  </headerFooter>
   <legacyDrawing r:id="rId95"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b19ad29f-88fa-4d62-ac16-34b992563bf9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47420,22 +47436,51 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3e02667f-0271-471b-bd6e-11a2e16def1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b19ad29f-88fa-4d62-ac16-34b992563bf9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACEEE91F-8CDF-4F2C-85D3-58EC881B6941}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8001F0D6-2591-4A68-815D-C98503A36C32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F7F7F6-A9CF-4163-97CB-3D814FACF000}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F7F7F6-A9CF-4163-97CB-3D814FACF000}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b19ad29f-88fa-4d62-ac16-34b992563bf9"/>
+    <ds:schemaRef ds:uri="e781ea9d-1795-4792-8d8d-c86ae526af93"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8001F0D6-2591-4A68-815D-C98503A36C32}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACEEE91F-8CDF-4F2C-85D3-58EC881B6941}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e02667f-0271-471b-bd6e-11a2e16def1d"/>
+    <ds:schemaRef ds:uri="b19ad29f-88fa-4d62-ac16-34b992563bf9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>